--- a/scores-from-excel/john-acme-scores.xlsx
+++ b/scores-from-excel/john-acme-scores.xlsx
@@ -32,18 +32,18 @@
     <t>No Support</t>
   </si>
   <si>
+    <t>Technical Specs</t>
+  </si>
+  <si>
+    <t>Very Bad</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
     <t>Technical Support</t>
   </si>
   <si>
-    <t>Technical Specs</t>
-  </si>
-  <si>
-    <t>Very Bad</t>
-  </si>
-  <si>
-    <t>Requirement</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -53,12 +53,12 @@
     <t>Bad</t>
   </si>
   <si>
+    <t xml:space="preserve">Must be able to hold 20 oz </t>
+  </si>
+  <si>
     <t>Hold time less than 5 minutes</t>
   </si>
   <si>
-    <t xml:space="preserve">Must be able to hold 20 oz </t>
-  </si>
-  <si>
     <t>Meh</t>
   </si>
   <si>
@@ -86,16 +86,16 @@
     <t>Packaging</t>
   </si>
   <si>
+    <t>Pleasant apppearance</t>
+  </si>
+  <si>
     <t>D&amp;B Rating</t>
   </si>
   <si>
-    <t>Pleasant apppearance</t>
+    <t>Easy to open</t>
   </si>
   <si>
     <t>Years in business</t>
-  </si>
-  <si>
-    <t>Easy to open</t>
   </si>
   <si>
     <t>Recyclable</t>
@@ -243,18 +243,18 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
         <v>1.0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -271,7 +271,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>5.0</v>
@@ -288,9 +288,7 @@
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
-        <v>1.0</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="6"/>
       <c r="E7" s="4">
         <v>4.0</v>
@@ -321,7 +319,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -332,7 +330,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4">
         <v>1.0</v>
@@ -341,7 +339,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4">
         <v>1.0</v>
@@ -399,18 +397,18 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4">
         <v>1.0</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>10</v>
@@ -427,7 +425,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4">
         <v>5.0</v>
@@ -477,7 +475,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -488,7 +486,7 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4">
         <v>3.0</v>
@@ -497,7 +495,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4">
         <v>5.0</v>
